--- a/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
+++ b/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
@@ -122,7 +122,7 @@
     <t>4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT-1st</t>
   </si>
   <si>
-    <t>435p</t>
+    <t>43pp</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
+++ b/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
@@ -122,7 +122,7 @@
     <t>4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT-1st</t>
   </si>
   <si>
-    <t>43pp</t>
+    <t>435p</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
+++ b/Mifos Automation Excels/Loan Product/4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>productname</t>
   </si>
@@ -116,10 +116,13 @@
     <t>addoverduecharges</t>
   </si>
   <si>
-    <t>4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT</t>
-  </si>
-  <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>4353-MS-Simple-Group-Loan-Product-Loanproduct-OVERDUEFEEFLAT-1st</t>
+  </si>
+  <si>
+    <t>435p</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -528,15 +531,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>4353</v>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -732,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
